--- a/opencvfiles/opencv学习.xlsx
+++ b/opencvfiles/opencv学习.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="285">
   <si>
     <t>程序链接：</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -571,13 +571,338 @@
   </si>
   <si>
     <t>8 用滑动条做调色板</t>
+  </si>
+  <si>
+    <t>创建鼠标事件的回调函数</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    cv2.setMouseCallback(windowName, onMouse[, param]) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        第一个参数：表示将要操作的面板名，</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        第二个参数：回调函数名，</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        第三个参数：给回调函数的参数。如果要给回调函数传递多个参数的话，则将这么多个参数存入一个</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    列表/元组中，将其传入</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    回调函数，共有5个参数：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        第一个参数；鼠标事件名</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                            EVENT_FLAG_ALTKEY　　 EVENT_FLAG_CTRLKEY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                            EVENT_FLAG_LBUTTON　　EVENT_FLAG_MBUTTON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                            EVENT_FLAG_RBUTTON　　EVENT_FLAG_SHIFTKEY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                            EVENT_LBUTTONDBLCLK　 EVENT_LBUTTONDOWN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                            EVENT_LBUTTONUP　　   EVENT_MBUTTONDBLCLK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                            EVENT_MBUTTONDOWN　　 EVENT_MBUTTONUP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                            EVENT_MOUSEMOVE    　 EVENT_RBUTTONDBLCLK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                            EVENT_RBUTTONDOWN     EVENT_RBUTTONUP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        第二个，第三个参数：鼠标在面板中的坐标</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        第四个参数：有没有其他特殊控制，比如在按左键的时候，按了Ctrl，Shift，Alt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                    键等，参数也是刚刚上面的EVENT列表中的，通过事件名可以找到对应</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                    flags</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        第五个参数；setMouseCallback()函数给回调函数传递的参数。(代码中，a没有用，</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                    只是为了演示如何给回调函数传递函数用的)</t>
+  </si>
+  <si>
+    <t>滑动条绑定到OpenCV 的窗口</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    cv2.createTrackbar(trackbarName, windowName, value, count, onChange)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        第一个参数：滑动条的名字，</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        第二个参数：滑动条被放置窗口的名字，</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        第三个参数：滑动条的默认位置。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        第四个参数：滑动条的最大值，</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        第五个函数：回调函数，每次滑动条的滑动都会调用回调函数。回调函数通常都会含有一个默认参数，</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    就是滑动条的位置。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    最后用这两个函数做了下面一个简单的绘图程序：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    每次获取当前的色彩，鼠标按下后开始绘图，鼠标移动到哪，则画到哪，默认是绘制从起始点到终点的矩形，</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    如果按了'm'键，则切换绘制以起始点和终点为直径的圆，圆心在两点的中心，如果再按'm'键，则切换会矩</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    引用：https://www.cnblogs.com/pakfahome/p/3913559.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D:/git_jxj/opencvfiles/gettrackbarpos_demo_2.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D:/git_jxj/opencvfiles/gettrackbarpos_demo.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    形。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9 图像的基础操作</t>
+  </si>
+  <si>
+    <t>9.1 获取并修改像素值</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    img.item(10,10,2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        第一、第二个参数：图像的高度与宽度对应的像素位置</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        第三个参数：RGB颜色通道下标值。0 -&gt; R , 1 -&gt; G , 2 -&gt; B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    img.itemset((10,10,2),100)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        第一个参数：图像的高度与宽度对应的像素位置和RGB颜色通道下标值。0 -&gt; R , 1 -&gt; G , 2 -&gt; B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        第二个参数：RGB颜色设置值</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    警告：Numpy 是经过优化了的进行快速矩阵运算的软件包。所以我们不推荐</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    逐个获取像素值并修改，这样会很慢，能有矩阵运算就不要用循环。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    注意：上面提到的方法被用来选取矩阵的一个区域，比如说前5 行的后3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    列。对于获取每一个像素值，也许使用Numpy 的array.item() 和array.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    itemset() 会更好。但是返回值是标量。如果你想获得所有B，G，R 的</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    值，你需要使用array.item() 分割他们。</t>
+  </si>
+  <si>
+    <t>9.2 获取图像属性</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    h,w,c = img.shape()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        返回值：行，列，通道</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    img.size()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        返回值：图像尺寸。 行*列*通道数</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    img.dtype()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        返回值：图像的数据类型</t>
+  </si>
+  <si>
+    <t>9.3 图像ROI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    roi = img[280:340,330:390]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    img[273:333,100,160] = roi</t>
+  </si>
+  <si>
+    <t>9.4 拆分及合并图像通道</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    b,g,r = cv2.split(img)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    img = cv2.merge(b,g,r)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    或者 b = img[:,:,0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    警告：cv2.split() 是一个比较耗时的操作。只有真正需要时才用它，能用</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Numpy 索引就尽量用。</t>
+  </si>
+  <si>
+    <t>D:/git_jxj/opencvfiles/itemset_demo.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.5 为图像扩边（填充）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    cv2.copyMakeBorder(src,top,borderType,value)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        • src 输入图像</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        • top, bottom, left, right 对应边界的像素数目。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        • borderType 要添加那种类型的边界，类型如下</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            – cv2.BORDER_CONSTANT 添加有颜色的常数值边界，还需要</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                下一个参数（value）。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            – cv2.BORDER_REFLECT 边界元素的镜像。比如: fedcba|abcdefgh|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                hgfedcb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            – cv2.BORDER_REFLECT_101 or cv2.BORDER_DEFAULT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                跟上面一样，但稍作改动。例如: gfedcb|abcdefgh|gfedcba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            – cv2.BORDER_REPLICATE 重复最后一个元素。例如: aaaaaa|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                abcdefgh|hhhhhhh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            – cv2.BORDER_WRAP 不知道怎么说了, 就像这样: cdefgh|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                abcdefgh|abcdefg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        • value 边界颜色，如果边界的类型是cv2.BORDER_CONSTANT</t>
+  </si>
+  <si>
+    <t>D:/git_jxj/opencvfiles/copymakeborder_demo.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10 图像上的算术运算</t>
+  </si>
+  <si>
+    <t>10.1 图像加法</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    cv2.add(x,y)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    注意：OpenCV 中的加法与Numpy 的加法是有所不同的。OpenCV 的加法</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    是一种饱和操作，而Numpy 的加法是一种模操作。</t>
+  </si>
+  <si>
+    <t>10.2 图像混合</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    g(x) = (1 -a) * f0(x) + a * f1(x)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    cv2.addWeighted(img1,0.7,img2,0.3,0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        参数1：欲混合图像1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        参数2：欲混合图像1的所占百分比</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        参数3：欲混合图像2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        参数4：欲混合图像2的所占百分比</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        参数5：偏置值γ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        返回值：dst = α * img1 + β * img2 + γ</t>
+  </si>
+  <si>
+    <t>D:/git_jxj/opencvfiles/add_demo.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.3 按位运算</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    OpenCV提供了4种位操作，AND，OR，NOT，XOR。函数为相关的操作加“cv2.bitwise_”前缀。如：cv2.bitwise_not。对于2元操作而言，至少两个参数，src1,src2；dst参数返回结果可选，msk参数也是可选，指定msk区域进行相关操作。如下：</t>
+  </si>
+  <si>
+    <t>bitwise_and(src1, src2[, dst[, mask]]) -&gt; dst</t>
+  </si>
+  <si>
+    <t>因此，可以使用参数返回结果，也可以使用赋值操作返回结果。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    img1_bg = cv2.bitwise_and(roi,roi,mask = mask)</t>
+  </si>
+  <si>
+    <t>11 程序性能检测及优化</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -648,6 +973,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -670,7 +1003,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -681,6 +1014,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -983,10 +1317,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R227"/>
+  <dimension ref="A1:R359"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A211" workbookViewId="0">
-      <selection activeCell="I232" sqref="I232"/>
+    <sheetView tabSelected="1" topLeftCell="A346" workbookViewId="0">
+      <selection activeCell="F364" sqref="F364"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2075,6 +2409,658 @@
         <v>178</v>
       </c>
     </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B228" s="7" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B229" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B230" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B231" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B232" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B233" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B234" s="7" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B235" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B236" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B237" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B238" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B239" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B240" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="241" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B241" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="242" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B242" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="243" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B243" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="244" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B244" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="245" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B245" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="246" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B246" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="247" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B247" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="248" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B248" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="249" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B249" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="251" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B251" s="7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="252" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B252" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="253" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B253" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="254" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B254" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="255" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B255" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="256" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B256" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B257" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B258" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B260" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B262" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B263" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B264" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B266" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A268" t="s">
+        <v>0</v>
+      </c>
+      <c r="D268" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A270" t="s">
+        <v>0</v>
+      </c>
+      <c r="D270" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A272" s="6" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="273" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B273" s="7" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="274" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B274" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="275" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B275" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="276" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B276" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="278" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B278" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="279" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B279" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="280" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B280" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="282" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B282" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C282" s="2"/>
+      <c r="D282" s="2"/>
+      <c r="E282" s="2"/>
+      <c r="F282" s="2"/>
+      <c r="G282" s="2"/>
+      <c r="H282" s="2"/>
+      <c r="I282" s="2"/>
+      <c r="J282" s="2"/>
+      <c r="K282" s="2"/>
+      <c r="L282" s="2"/>
+      <c r="M282" s="2"/>
+      <c r="N282" s="2"/>
+      <c r="O282" s="2"/>
+      <c r="P282" s="2"/>
+      <c r="Q282" s="2"/>
+    </row>
+    <row r="283" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B283" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C283" s="2"/>
+      <c r="D283" s="2"/>
+      <c r="E283" s="2"/>
+      <c r="F283" s="2"/>
+      <c r="G283" s="2"/>
+      <c r="H283" s="2"/>
+      <c r="I283" s="2"/>
+      <c r="J283" s="2"/>
+      <c r="K283" s="2"/>
+      <c r="L283" s="2"/>
+      <c r="M283" s="2"/>
+      <c r="N283" s="2"/>
+      <c r="O283" s="2"/>
+      <c r="P283" s="2"/>
+      <c r="Q283" s="2"/>
+    </row>
+    <row r="285" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B285" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="C285" s="8"/>
+      <c r="D285" s="8"/>
+      <c r="E285" s="8"/>
+      <c r="F285" s="8"/>
+      <c r="G285" s="8"/>
+      <c r="H285" s="8"/>
+      <c r="I285" s="8"/>
+      <c r="J285" s="8"/>
+      <c r="K285" s="8"/>
+      <c r="L285" s="8"/>
+      <c r="M285" s="8"/>
+      <c r="N285" s="8"/>
+      <c r="O285" s="8"/>
+      <c r="P285" s="8"/>
+    </row>
+    <row r="286" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B286" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="C286" s="8"/>
+      <c r="D286" s="8"/>
+      <c r="E286" s="8"/>
+      <c r="F286" s="8"/>
+      <c r="G286" s="8"/>
+      <c r="H286" s="8"/>
+      <c r="I286" s="8"/>
+      <c r="J286" s="8"/>
+      <c r="K286" s="8"/>
+      <c r="L286" s="8"/>
+      <c r="M286" s="8"/>
+      <c r="N286" s="8"/>
+      <c r="O286" s="8"/>
+      <c r="P286" s="8"/>
+    </row>
+    <row r="287" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B287" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="C287" s="8"/>
+      <c r="D287" s="8"/>
+      <c r="E287" s="8"/>
+      <c r="F287" s="8"/>
+      <c r="G287" s="8"/>
+      <c r="H287" s="8"/>
+      <c r="I287" s="8"/>
+      <c r="J287" s="8"/>
+      <c r="K287" s="8"/>
+      <c r="L287" s="8"/>
+      <c r="M287" s="8"/>
+      <c r="N287" s="8"/>
+      <c r="O287" s="8"/>
+      <c r="P287" s="8"/>
+    </row>
+    <row r="288" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B288" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="C288" s="8"/>
+      <c r="D288" s="8"/>
+      <c r="E288" s="8"/>
+      <c r="F288" s="8"/>
+      <c r="G288" s="8"/>
+      <c r="H288" s="8"/>
+      <c r="I288" s="8"/>
+      <c r="J288" s="8"/>
+      <c r="K288" s="8"/>
+      <c r="L288" s="8"/>
+      <c r="M288" s="8"/>
+      <c r="N288" s="8"/>
+      <c r="O288" s="8"/>
+      <c r="P288" s="8"/>
+    </row>
+    <row r="290" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B290" s="7" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="291" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B291" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="292" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B292" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="293" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B293" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="294" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B294" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="295" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B295" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="296" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B296" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="298" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B298" s="7" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="299" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B299" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="300" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B300" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="302" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B302" s="7" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="303" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B303" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="304" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B304" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="305" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B305" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="307" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B307" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="C307" s="10"/>
+      <c r="D307" s="10"/>
+      <c r="E307" s="2"/>
+      <c r="F307" s="2"/>
+      <c r="G307" s="2"/>
+    </row>
+    <row r="308" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B308" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="C308" s="10"/>
+      <c r="D308" s="10"/>
+      <c r="E308" s="2"/>
+      <c r="F308" s="2"/>
+      <c r="G308" s="2"/>
+    </row>
+    <row r="310" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A310" t="s">
+        <v>0</v>
+      </c>
+      <c r="D310" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="311" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="D311" s="1"/>
+    </row>
+    <row r="312" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B312" s="7" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="313" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B313" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="314" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B314" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="315" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B315" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="316" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B316" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="317" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B317" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="318" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B318" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="319" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B319" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="320" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B320" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B321" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B322" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B323" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B324" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B325" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B326" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B327" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A329" t="s">
+        <v>0</v>
+      </c>
+      <c r="D329" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A331" s="6" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B332" s="7" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B333" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B335" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B336" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B338" s="7" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B339" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B340" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B341" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B342" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B343" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B344" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B345" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B346" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A348" t="s">
+        <v>0</v>
+      </c>
+      <c r="D348" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B350" s="7" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B351" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B352" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B353" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B355" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A357" t="s">
+        <v>0</v>
+      </c>
+      <c r="D357" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A359" s="6" t="s">
+        <v>284</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -2088,9 +3074,15 @@
     <hyperlink ref="D210" r:id="rId8"/>
     <hyperlink ref="D221" r:id="rId9"/>
     <hyperlink ref="D225" r:id="rId10" display="D:/git_jxj/opencvfiles/setmousecallback_demo_1.py"/>
+    <hyperlink ref="D268" r:id="rId11" display="D:/git_jxj/opencvfiles/gettrackbarpos_demo_2.py"/>
+    <hyperlink ref="D270" r:id="rId12"/>
+    <hyperlink ref="D310" r:id="rId13"/>
+    <hyperlink ref="D329" r:id="rId14"/>
+    <hyperlink ref="D348" r:id="rId15"/>
+    <hyperlink ref="D357" r:id="rId16"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId11"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId17"/>
 </worksheet>
 </file>
 

--- a/opencvfiles/opencv学习.xlsx
+++ b/opencvfiles/opencv学习.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="303">
   <si>
     <t>程序链接：</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -896,6 +896,64 @@
   </si>
   <si>
     <t>11 程序性能检测及优化</t>
+  </si>
+  <si>
+    <t>11.1 使用OpenCV 检测程序效率</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    cv2.getTickCount()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        返回值：从参考点到这个函数被执行的时钟数。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    cv2.getTickFrequency()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        返回值：返回时钟频率，或者说每秒钟的时钟数。</t>
+  </si>
+  <si>
+    <t>D:/git_jxj/opencvfiles/gettickcount_demo.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>核函数来做中值滤波：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    我们将会用下面的例子演示。下面的例子是用窗口大小不同（5，7，9）的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D:/git_jxj/opencvfiles/gettickcount_demo_2.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意： 你也可以中time 模块实现上面的功能。但是要用的函数是</t>
+  </si>
+  <si>
+    <t>time.time() 而不是cv2.getTickCount。比较一下这两个结果的差别</t>
+  </si>
+  <si>
+    <t>吧。</t>
+  </si>
+  <si>
+    <t>11.2 OpenCV 中的默认优化</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    查看优化是否开启</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        cv2.useOptimized()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    开启优化</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        cv2.setUseOptimized()</t>
+  </si>
+  <si>
+    <t>D:/git_jxj/opencvfiles/setuseoptimized_demo.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1317,10 +1375,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R359"/>
+  <dimension ref="A1:R381"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A346" workbookViewId="0">
-      <selection activeCell="F364" sqref="F364"/>
+    <sheetView tabSelected="1" topLeftCell="A357" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D381" sqref="D381"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3059,6 +3117,105 @@
     <row r="359" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A359" s="6" t="s">
         <v>284</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B360" s="7" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B361" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B362" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B364" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B365" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A367" t="s">
+        <v>0</v>
+      </c>
+      <c r="D367" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B368" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B369" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A370" t="s">
+        <v>0</v>
+      </c>
+      <c r="D370" s="1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B372" s="8" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B373" s="9" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B374" s="9" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B376" s="7" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B377" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B378" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B379" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B380" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A381" t="s">
+        <v>0</v>
+      </c>
+      <c r="D381" s="1" t="s">
+        <v>302</v>
       </c>
     </row>
   </sheetData>
@@ -3080,9 +3237,12 @@
     <hyperlink ref="D329" r:id="rId14"/>
     <hyperlink ref="D348" r:id="rId15"/>
     <hyperlink ref="D357" r:id="rId16"/>
+    <hyperlink ref="D367" r:id="rId17"/>
+    <hyperlink ref="D370" r:id="rId18"/>
+    <hyperlink ref="D381" r:id="rId19" display="D:/git_jxj/opencvfiles/gettickcount_demo_2.py"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId17"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId20"/>
 </worksheet>
 </file>
 

--- a/opencvfiles/opencv学习.xlsx
+++ b/opencvfiles/opencv学习.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="332">
   <si>
     <t>程序链接：</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -954,13 +954,107 @@
   <si>
     <t>D:/git_jxj/opencvfiles/setuseoptimized_demo.py</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11.3 在IPython 中检测程序效率</t>
+  </si>
+  <si>
+    <t>注意：Python 的标量计算比Nump 的标量计算要快。对于仅包含一两个</t>
+  </si>
+  <si>
+    <t>元素的操作Python 标量比Numpy 的数组要快。但是当数组稍微大一点时</t>
+  </si>
+  <si>
+    <t>Numpy 就会胜出了。</t>
+  </si>
+  <si>
+    <t>注意：一般情况下OpenCV 的函数要比Numpy 函数快。所以对于相同的操</t>
+  </si>
+  <si>
+    <t>作最好使用OpenCV 的函数。当然也有例外，尤其是当使用Numpy 对视图</t>
+  </si>
+  <si>
+    <t>（而非复制）进行操作时。</t>
+  </si>
+  <si>
+    <t>11.4 更多IPython 的魔法命令</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    还有几个魔法命令可以用来检测程序的效率，profiling，line profiling，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习一下。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内存使用等。他们都有完善的文档。所以这里只提供了超链接。感兴趣的可以自己</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11.5 效率优化技术</t>
+  </si>
+  <si>
+    <t>我们这里仅仅提一下相关的，你可以通过超链接查找更多详细信息。我们要说</t>
+  </si>
+  <si>
+    <t>的最重要的一点是：首先用简单的方式实现你的算法（结果正确最重要），当结</t>
+  </si>
+  <si>
+    <t>果正确后，再使用上面的提到的方法找到程序的瓶颈来优化它。</t>
+  </si>
+  <si>
+    <t>1. 尽量避免使用循环，尤其双层三层循环，它们天生就是非常慢的。</t>
+  </si>
+  <si>
+    <t>2. 算法中尽量使用向量操作，因为Numpy 和OpenCV 都对向量操作进行</t>
+  </si>
+  <si>
+    <t>3. 利用高速缓存一致性。</t>
+  </si>
+  <si>
+    <t>4. 没有必要的话就不要复制数组。使用视图来代替复制。数组复制是非常浪</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      有些技术和编程方法可以让我们最大的发挥Python 和Numpy 的威力。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   了优化。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   费资源的。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>就算进行了上述优化，如果你的程序还是很慢，或者说大的训话不可避免的话，</t>
+  </si>
+  <si>
+    <t>你你应该尝试使用其他的包，比如说Cython，来加速你的程序。</t>
+  </si>
+  <si>
+    <t>12 OpenCV 中的数学工具</t>
+  </si>
+  <si>
+    <t>略</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13 颜色空间转换</t>
+  </si>
+  <si>
+    <t>events = [i for i in dir(cv2) if 'EVENT' in i]</t>
+  </si>
+  <si>
+    <t>print(events)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1039,6 +1133,23 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1061,7 +1172,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1073,6 +1184,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1086,6 +1199,125 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>385</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>113517</xdr:colOff>
+      <xdr:row>400</xdr:row>
+      <xdr:rowOff>123488</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="323850" y="65665350"/>
+          <a:ext cx="6266667" cy="2695238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>400</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>284987</xdr:colOff>
+      <xdr:row>403</xdr:row>
+      <xdr:rowOff>95189</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="333375" y="68360925"/>
+          <a:ext cx="6104762" cy="485714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>408</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>161136</xdr:colOff>
+      <xdr:row>415</xdr:row>
+      <xdr:rowOff>95088</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="323850" y="69951600"/>
+          <a:ext cx="6314286" cy="1295238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1375,10 +1607,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R381"/>
+  <dimension ref="A1:R444"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A357" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D381" sqref="D381"/>
+    <sheetView tabSelected="1" topLeftCell="A196" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O215" sqref="O215"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2398,256 +2630,282 @@
     <row r="208" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A208" s="6"/>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B209" s="7" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A210" t="s">
+    <row r="210" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B210" s="11" t="s">
+        <v>330</v>
+      </c>
+      <c r="C210" s="12"/>
+      <c r="D210" s="12"/>
+      <c r="E210" s="12"/>
+      <c r="F210" s="12"/>
+      <c r="G210" s="12"/>
+      <c r="H210" s="12"/>
+      <c r="I210" s="12"/>
+      <c r="J210" s="12"/>
+      <c r="K210" s="12"/>
+      <c r="L210" s="12"/>
+      <c r="M210" s="12"/>
+      <c r="N210" s="12"/>
+    </row>
+    <row r="211" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B211" s="11" t="s">
+        <v>331</v>
+      </c>
+      <c r="C211" s="12"/>
+      <c r="D211" s="12"/>
+      <c r="E211" s="12"/>
+      <c r="F211" s="12"/>
+      <c r="G211" s="12"/>
+      <c r="H211" s="12"/>
+      <c r="I211" s="12"/>
+      <c r="J211" s="12"/>
+      <c r="K211" s="12"/>
+      <c r="L211" s="12"/>
+      <c r="M211" s="12"/>
+      <c r="N211" s="12"/>
+    </row>
+    <row r="212" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A212" t="s">
         <v>0</v>
       </c>
-      <c r="D210" s="1" t="s">
+      <c r="D212" s="1" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B212" s="7" t="s">
+    <row r="214" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B214" s="7" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B213" t="s">
+    <row r="215" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B215" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B214" t="s">
+    <row r="216" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B216" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B215" t="s">
+    <row r="217" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B217" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B217" t="s">
+    <row r="219" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B219" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B219" t="s">
+    <row r="221" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B221" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A221" t="s">
+    <row r="223" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A223" t="s">
         <v>0</v>
       </c>
-      <c r="D221" s="1" t="s">
+      <c r="D223" s="1" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B223" t="s">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B225" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A225" t="s">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A227" t="s">
         <v>0</v>
       </c>
-      <c r="D225" s="1" t="s">
+      <c r="D227" s="1" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A227" s="6" t="s">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A229" s="6" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B228" s="7" t="s">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B230" s="7" t="s">
         <v>179</v>
-      </c>
-    </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B229" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B230" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B231" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B232" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B233" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B234" s="7" t="s">
-        <v>185</v>
+      <c r="B234" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B235" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B236" t="s">
-        <v>187</v>
+      <c r="B236" s="7" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B237" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B238" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B239" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B240" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="241" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B241" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="242" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B242" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="243" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B243" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="244" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B244" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="245" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B245" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="246" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B246" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="247" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B247" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="248" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B248" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="249" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B249" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="250" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B250" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="251" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B251" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="251" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B251" s="7" t="s">
+    <row r="253" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B253" s="7" t="s">
         <v>201</v>
-      </c>
-    </row>
-    <row r="252" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B252" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="253" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B253" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="254" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B254" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="255" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B255" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="256" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B256" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B257" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B258" t="s">
-        <v>208</v>
+        <v>206</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B259" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B260" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B262" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B263" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B264" t="s">
-        <v>215</v>
+        <v>210</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B265" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B266" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B268" t="s">
         <v>212</v>
-      </c>
-    </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A268" t="s">
-        <v>0</v>
-      </c>
-      <c r="D268" s="1" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.15">
@@ -2655,130 +2913,100 @@
         <v>0</v>
       </c>
       <c r="D270" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A272" t="s">
+        <v>0</v>
+      </c>
+      <c r="D272" s="1" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A272" s="6" t="s">
+    <row r="274" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A274" s="6" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="273" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B273" s="7" t="s">
+    <row r="275" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="B275" s="7" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="274" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B274" t="s">
+    <row r="276" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="B276" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="275" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B275" t="s">
+    <row r="277" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="B277" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="276" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B276" t="s">
+    <row r="278" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="B278" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="278" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B278" t="s">
+    <row r="280" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="B280" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="279" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B279" t="s">
+    <row r="281" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="B281" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="280" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B280" t="s">
+    <row r="282" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="B282" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="282" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B282" s="2" t="s">
+    <row r="284" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="B284" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="C282" s="2"/>
-      <c r="D282" s="2"/>
-      <c r="E282" s="2"/>
-      <c r="F282" s="2"/>
-      <c r="G282" s="2"/>
-      <c r="H282" s="2"/>
-      <c r="I282" s="2"/>
-      <c r="J282" s="2"/>
-      <c r="K282" s="2"/>
-      <c r="L282" s="2"/>
-      <c r="M282" s="2"/>
-      <c r="N282" s="2"/>
-      <c r="O282" s="2"/>
-      <c r="P282" s="2"/>
-      <c r="Q282" s="2"/>
-    </row>
-    <row r="283" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B283" s="2" t="s">
+      <c r="C284" s="2"/>
+      <c r="D284" s="2"/>
+      <c r="E284" s="2"/>
+      <c r="F284" s="2"/>
+      <c r="G284" s="2"/>
+      <c r="H284" s="2"/>
+      <c r="I284" s="2"/>
+      <c r="J284" s="2"/>
+      <c r="K284" s="2"/>
+      <c r="L284" s="2"/>
+      <c r="M284" s="2"/>
+      <c r="N284" s="2"/>
+      <c r="O284" s="2"/>
+      <c r="P284" s="2"/>
+      <c r="Q284" s="2"/>
+    </row>
+    <row r="285" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="B285" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="C283" s="2"/>
-      <c r="D283" s="2"/>
-      <c r="E283" s="2"/>
-      <c r="F283" s="2"/>
-      <c r="G283" s="2"/>
-      <c r="H283" s="2"/>
-      <c r="I283" s="2"/>
-      <c r="J283" s="2"/>
-      <c r="K283" s="2"/>
-      <c r="L283" s="2"/>
-      <c r="M283" s="2"/>
-      <c r="N283" s="2"/>
-      <c r="O283" s="2"/>
-      <c r="P283" s="2"/>
-      <c r="Q283" s="2"/>
-    </row>
-    <row r="285" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B285" s="8" t="s">
+      <c r="C285" s="2"/>
+      <c r="D285" s="2"/>
+      <c r="E285" s="2"/>
+      <c r="F285" s="2"/>
+      <c r="G285" s="2"/>
+      <c r="H285" s="2"/>
+      <c r="I285" s="2"/>
+      <c r="J285" s="2"/>
+      <c r="K285" s="2"/>
+      <c r="L285" s="2"/>
+      <c r="M285" s="2"/>
+      <c r="N285" s="2"/>
+      <c r="O285" s="2"/>
+      <c r="P285" s="2"/>
+      <c r="Q285" s="2"/>
+    </row>
+    <row r="287" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="B287" s="8" t="s">
         <v>226</v>
-      </c>
-      <c r="C285" s="8"/>
-      <c r="D285" s="8"/>
-      <c r="E285" s="8"/>
-      <c r="F285" s="8"/>
-      <c r="G285" s="8"/>
-      <c r="H285" s="8"/>
-      <c r="I285" s="8"/>
-      <c r="J285" s="8"/>
-      <c r="K285" s="8"/>
-      <c r="L285" s="8"/>
-      <c r="M285" s="8"/>
-      <c r="N285" s="8"/>
-      <c r="O285" s="8"/>
-      <c r="P285" s="8"/>
-    </row>
-    <row r="286" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B286" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="C286" s="8"/>
-      <c r="D286" s="8"/>
-      <c r="E286" s="8"/>
-      <c r="F286" s="8"/>
-      <c r="G286" s="8"/>
-      <c r="H286" s="8"/>
-      <c r="I286" s="8"/>
-      <c r="J286" s="8"/>
-      <c r="K286" s="8"/>
-      <c r="L286" s="8"/>
-      <c r="M286" s="8"/>
-      <c r="N286" s="8"/>
-      <c r="O286" s="8"/>
-      <c r="P286" s="8"/>
-    </row>
-    <row r="287" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B287" s="8" t="s">
-        <v>228</v>
       </c>
       <c r="C287" s="8"/>
       <c r="D287" s="8"/>
@@ -2795,9 +3023,9 @@
       <c r="O287" s="8"/>
       <c r="P287" s="8"/>
     </row>
-    <row r="288" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="288" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B288" s="8" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C288" s="8"/>
       <c r="D288" s="8"/>
@@ -2814,408 +3042,581 @@
       <c r="O288" s="8"/>
       <c r="P288" s="8"/>
     </row>
-    <row r="290" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B290" s="7" t="s">
+    <row r="289" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B289" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="C289" s="8"/>
+      <c r="D289" s="8"/>
+      <c r="E289" s="8"/>
+      <c r="F289" s="8"/>
+      <c r="G289" s="8"/>
+      <c r="H289" s="8"/>
+      <c r="I289" s="8"/>
+      <c r="J289" s="8"/>
+      <c r="K289" s="8"/>
+      <c r="L289" s="8"/>
+      <c r="M289" s="8"/>
+      <c r="N289" s="8"/>
+      <c r="O289" s="8"/>
+      <c r="P289" s="8"/>
+    </row>
+    <row r="290" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B290" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="C290" s="8"/>
+      <c r="D290" s="8"/>
+      <c r="E290" s="8"/>
+      <c r="F290" s="8"/>
+      <c r="G290" s="8"/>
+      <c r="H290" s="8"/>
+      <c r="I290" s="8"/>
+      <c r="J290" s="8"/>
+      <c r="K290" s="8"/>
+      <c r="L290" s="8"/>
+      <c r="M290" s="8"/>
+      <c r="N290" s="8"/>
+      <c r="O290" s="8"/>
+      <c r="P290" s="8"/>
+    </row>
+    <row r="292" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B292" s="7" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="291" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B291" t="s">
+    <row r="293" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B293" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="292" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B292" t="s">
+    <row r="294" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B294" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="293" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B293" t="s">
+    <row r="295" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B295" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="294" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B294" t="s">
+    <row r="296" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B296" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="295" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B295" t="s">
+    <row r="297" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B297" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="296" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B296" t="s">
+    <row r="298" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B298" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="298" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B298" s="7" t="s">
+    <row r="300" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B300" s="7" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="299" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B299" t="s">
+    <row r="301" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B301" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="300" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B300" t="s">
+    <row r="302" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B302" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="302" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B302" s="7" t="s">
+    <row r="304" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B304" s="7" t="s">
         <v>240</v>
-      </c>
-    </row>
-    <row r="303" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B303" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="304" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B304" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="305" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B305" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="306" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B306" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="307" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B307" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B307" s="2" t="s">
+    <row r="309" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B309" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="C307" s="10"/>
-      <c r="D307" s="10"/>
-      <c r="E307" s="2"/>
-      <c r="F307" s="2"/>
-      <c r="G307" s="2"/>
-    </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B308" s="10" t="s">
+      <c r="C309" s="10"/>
+      <c r="D309" s="10"/>
+      <c r="E309" s="2"/>
+      <c r="F309" s="2"/>
+      <c r="G309" s="2"/>
+    </row>
+    <row r="310" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B310" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="C308" s="10"/>
-      <c r="D308" s="10"/>
-      <c r="E308" s="2"/>
-      <c r="F308" s="2"/>
-      <c r="G308" s="2"/>
-    </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A310" t="s">
+      <c r="C310" s="10"/>
+      <c r="D310" s="10"/>
+      <c r="E310" s="2"/>
+      <c r="F310" s="2"/>
+      <c r="G310" s="2"/>
+    </row>
+    <row r="312" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A312" t="s">
         <v>0</v>
       </c>
-      <c r="D310" s="1" t="s">
+      <c r="D312" s="1" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="D311" s="1"/>
-    </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B312" s="7" t="s">
+    <row r="313" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="D313" s="1"/>
+    </row>
+    <row r="314" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B314" s="7" t="s">
         <v>247</v>
-      </c>
-    </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B313" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B314" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="315" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B315" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="316" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B316" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="317" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B317" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="318" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B318" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="319" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B319" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="320" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B320" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B321" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B322" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B323" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B324" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B325" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B326" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B327" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B328" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B329" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A329" t="s">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A331" t="s">
         <v>0</v>
       </c>
-      <c r="D329" s="1" t="s">
+      <c r="D331" s="1" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A331" s="6" t="s">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A333" s="6" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B332" s="7" t="s">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B334" s="7" t="s">
         <v>265</v>
-      </c>
-    </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B333" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B335" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B337" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B336" t="s">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B338" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B338" s="7" t="s">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B340" s="7" t="s">
         <v>269</v>
-      </c>
-    </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B339" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B340" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B341" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B342" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B343" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B344" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B345" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B346" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B347" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B348" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A348" t="s">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A350" t="s">
         <v>0</v>
       </c>
-      <c r="D348" s="1" t="s">
+      <c r="D350" s="1" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B350" s="7" t="s">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B352" s="7" t="s">
         <v>279</v>
-      </c>
-    </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B351" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B352" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B353" t="s">
-        <v>282</v>
+        <v>280</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B354" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B355" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B357" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A357" t="s">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A359" t="s">
         <v>0</v>
       </c>
-      <c r="D357" s="1" t="s">
+      <c r="D359" s="1" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A359" s="6" t="s">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A361" s="6" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B360" s="7" t="s">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B362" s="7" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B361" t="s">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B363" t="s">
         <v>286</v>
-      </c>
-    </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B362" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B364" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B366" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B365" t="s">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B367" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A367" t="s">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A369" t="s">
         <v>0</v>
       </c>
-      <c r="D367" s="1" t="s">
+      <c r="D369" s="1" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B368" t="s">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B370" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B369" t="s">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B371" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A370" t="s">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A372" t="s">
         <v>0</v>
       </c>
-      <c r="D370" s="1" t="s">
+      <c r="D372" s="1" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B372" s="8" t="s">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B374" s="8" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B373" s="9" t="s">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B375" s="9" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B374" s="9" t="s">
+    <row r="376" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B376" s="9" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B376" s="7" t="s">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B378" s="7" t="s">
         <v>297</v>
-      </c>
-    </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B377" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B378" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B379" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B380" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B381" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B382" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A381" t="s">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A383" t="s">
         <v>0</v>
       </c>
-      <c r="D381" s="1" t="s">
+      <c r="D383" s="1" t="s">
         <v>302</v>
+      </c>
+    </row>
+    <row r="385" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B385" s="7" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="405" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B405" s="8" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="406" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B406" s="9" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="407" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B407" s="9" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="417" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B417" s="8" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="418" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B418" s="9" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="419" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B419" s="9" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="421" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B421" s="7" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="422" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B422" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="423" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B423" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="424" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B424" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="426" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B426" s="7" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="427" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B427" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="428" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B428" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="429" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B429" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="430" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B430" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="431" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B431" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="432" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B432" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B433" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B434" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B435" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B436" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B438" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B439" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A441" s="6" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B442" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A444" s="6" t="s">
+        <v>329</v>
       </c>
     </row>
   </sheetData>
@@ -3228,21 +3629,22 @@
     <hyperlink ref="D114" r:id="rId5"/>
     <hyperlink ref="D144" r:id="rId6"/>
     <hyperlink ref="D205" r:id="rId7"/>
-    <hyperlink ref="D210" r:id="rId8"/>
-    <hyperlink ref="D221" r:id="rId9"/>
-    <hyperlink ref="D225" r:id="rId10" display="D:/git_jxj/opencvfiles/setmousecallback_demo_1.py"/>
-    <hyperlink ref="D268" r:id="rId11" display="D:/git_jxj/opencvfiles/gettrackbarpos_demo_2.py"/>
-    <hyperlink ref="D270" r:id="rId12"/>
-    <hyperlink ref="D310" r:id="rId13"/>
-    <hyperlink ref="D329" r:id="rId14"/>
-    <hyperlink ref="D348" r:id="rId15"/>
-    <hyperlink ref="D357" r:id="rId16"/>
-    <hyperlink ref="D367" r:id="rId17"/>
-    <hyperlink ref="D370" r:id="rId18"/>
-    <hyperlink ref="D381" r:id="rId19" display="D:/git_jxj/opencvfiles/gettickcount_demo_2.py"/>
+    <hyperlink ref="D212" r:id="rId8"/>
+    <hyperlink ref="D223" r:id="rId9"/>
+    <hyperlink ref="D227" r:id="rId10" display="D:/git_jxj/opencvfiles/setmousecallback_demo_1.py"/>
+    <hyperlink ref="D270" r:id="rId11" display="D:/git_jxj/opencvfiles/gettrackbarpos_demo_2.py"/>
+    <hyperlink ref="D272" r:id="rId12"/>
+    <hyperlink ref="D312" r:id="rId13"/>
+    <hyperlink ref="D331" r:id="rId14"/>
+    <hyperlink ref="D350" r:id="rId15"/>
+    <hyperlink ref="D359" r:id="rId16"/>
+    <hyperlink ref="D369" r:id="rId17"/>
+    <hyperlink ref="D372" r:id="rId18"/>
+    <hyperlink ref="D383" r:id="rId19"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId20"/>
+  <drawing r:id="rId21"/>
 </worksheet>
 </file>
 
